--- a/analysis/requisitesTable.xlsx
+++ b/analysis/requisitesTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliobosco/drive/aa_SAMT1819/progetti/progetto1/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24135152-8902-7643-A1CF-000685760513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C122B-41A0-C141-8A1C-1E80B53B89EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="3720" windowWidth="28040" windowHeight="17440" xr2:uid="{1D4C3A32-79B6-014E-9230-2ADD48425820}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{1D4C3A32-79B6-014E-9230-2ADD48425820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -59,9 +54,6 @@
     <t>registrazione utenti</t>
   </si>
   <si>
-    <t>pagina riassuntiva prima della registrazione</t>
-  </si>
-  <si>
     <t>dati</t>
   </si>
   <si>
@@ -80,27 +72,6 @@
     <t>tasto -&gt; pagina registrazione</t>
   </si>
   <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>campi obbligatori con *</t>
-  </si>
-  <si>
-    <t>form - campi</t>
-  </si>
-  <si>
-    <t>form - bottoni</t>
-  </si>
-  <si>
-    <t>due tasti</t>
-  </si>
-  <si>
-    <t>1-cancella</t>
-  </si>
-  <si>
-    <t>2-avanti</t>
-  </si>
-  <si>
     <t>pagine</t>
   </si>
   <si>
@@ -122,87 +93,9 @@
     <t>3 - controllo</t>
   </si>
   <si>
-    <t>campi da controllare</t>
-  </si>
-  <si>
-    <t>controllo - bottoni</t>
-  </si>
-  <si>
-    <t>1 - correggi</t>
-  </si>
-  <si>
-    <t>2 - registra</t>
-  </si>
-  <si>
-    <t>registrazione</t>
-  </si>
-  <si>
-    <t>aggiungere data ora (server side)</t>
-  </si>
-  <si>
-    <t>csv files</t>
-  </si>
-  <si>
-    <t>due file</t>
-  </si>
-  <si>
-    <t>tutte le registrazioni (Registrazioni_tutte.csv)</t>
-  </si>
-  <si>
-    <t>registrazioni giornaliere(Registrazione_yyyy_mm_dd.csv)</t>
-  </si>
-  <si>
     <t>File salvati nella root del sito sotto "Registrazioni"</t>
   </si>
   <si>
-    <t>fom - validazione dati</t>
-  </si>
-  <si>
-    <t>deve essere effettuata maualmente (no auto controlli browser)</t>
-  </si>
-  <si>
-    <t>se non sono tutti completi non si può andare avanti</t>
-  </si>
-  <si>
-    <t>form - campi obbligatori</t>
-  </si>
-  <si>
-    <t>hobby:testo</t>
-  </si>
-  <si>
-    <t>professione:testo</t>
-  </si>
-  <si>
-    <t>nome:test (*)</t>
-  </si>
-  <si>
-    <t>cognome:testo (*)</t>
-  </si>
-  <si>
-    <t>dataDiNascita:data (*)</t>
-  </si>
-  <si>
-    <t>N Civico:int(3) (*)</t>
-  </si>
-  <si>
-    <t>città:testo (*)</t>
-  </si>
-  <si>
-    <t>nap:int(5) (*)</t>
-  </si>
-  <si>
-    <t>tel:int,spazio,meno (*)</t>
-  </si>
-  <si>
-    <t>email(test@test.test) (*)</t>
-  </si>
-  <si>
-    <t>genere:(m|f) (*)</t>
-  </si>
-  <si>
-    <t>via:testo(*)</t>
-  </si>
-  <si>
     <t>4 pagine</t>
   </si>
   <si>
@@ -219,6 +112,45 @@
   </si>
   <si>
     <t xml:space="preserve">4 lettra dati </t>
+  </si>
+  <si>
+    <t>pagina con campi obbligatori e con validazione</t>
+  </si>
+  <si>
+    <t>separatore ";"</t>
+  </si>
+  <si>
+    <t>form dei dati</t>
+  </si>
+  <si>
+    <t>validazione dati</t>
+  </si>
+  <si>
+    <t>tasto -&gt; annullamento inserimento</t>
+  </si>
+  <si>
+    <t>controllare i dati</t>
+  </si>
+  <si>
+    <t>mostrare dati come nel form di registrazione</t>
+  </si>
+  <si>
+    <t>tasto -&gt; correzione</t>
+  </si>
+  <si>
+    <t>tasto -&gt; controllo</t>
+  </si>
+  <si>
+    <t>tasto -&gt; iscrizione</t>
+  </si>
+  <si>
+    <t>ritorno a pagina benvenuto</t>
+  </si>
+  <si>
+    <t>permessi di scrittura</t>
+  </si>
+  <si>
+    <t>Salvare i file in 2 CSV (Registrazioni_tutte.csv, Registrazione_yyyy_mm_dd.csv)</t>
   </si>
 </sst>
 </file>
@@ -585,19 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918EC18-7E09-BA46-8134-9E14BB5A809B}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" customWidth="1"/>
+    <col min="8" max="8" width="45.5" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,32 +575,44 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -671,44 +621,47 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -717,18 +670,24 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -737,15 +696,24 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -754,212 +722,37 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1" xr:uid="{AF86B245-1CBA-7B48-B452-090A0D984EF3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/requisitesTable.xlsx
+++ b/analysis/requisitesTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliobosco/drive/aa_SAMT1819/progetti/progetto1/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C122B-41A0-C141-8A1C-1E80B53B89EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6E6F5-1761-9C4B-9FCC-D941565B156A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22400" xr2:uid="{1D4C3A32-79B6-014E-9230-2ADD48425820}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>tasto -&gt; controllo</t>
   </si>
   <si>
-    <t>tasto -&gt; iscrizione</t>
-  </si>
-  <si>
     <t>ritorno a pagina benvenuto</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Salvare i file in 2 CSV (Registrazioni_tutte.csv, Registrazione_yyyy_mm_dd.csv)</t>
+  </si>
+  <si>
+    <t>tasto -&gt; iscrizione, salvare i dati e andare alla pagina lettura dati</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
